--- a/Result/check3.xlsx
+++ b/Result/check3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC14"/>
+  <dimension ref="A1:AE14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,80 +501,90 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>recommend</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>recommend2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>量增</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>change_quote</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
@@ -648,80 +658,90 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>170.5</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>-2.01</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>汎銓</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>2.64</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>60.36</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>11.08</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>75.44</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>34.56</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>8829</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>分析服務100.00% (2023年)</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>汎銓-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>23236986.0</t>
         </is>
@@ -790,85 +810,95 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>NaT</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>242.5</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>-0.21</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>訊芯-KY</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>1.01</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>61.97</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>12.83</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>144.35</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>47.1</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>26060</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>高速光纖收發模組64.42%、系統模組封裝產品35.58% (2023年)</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>訊芯-KY-半導體業-上市</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>1640612926.0</t>
         </is>
@@ -937,85 +967,95 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>NaT</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>142.0</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>啟碁</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>4.22</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>63.38</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>53.51</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>20.85</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>40.14</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>68898</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>無線通訊產品96.85%、其他3.15% (2023年)</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>啟碁-通信網路業-上市</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>1618853536.0</t>
         </is>
@@ -1084,85 +1124,95 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>NaT</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>145.0</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>-3.33</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>大銀微系統</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>0.07</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>31.72</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>4.99</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>604.17</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>72.79</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>17371</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>精密運動及控制元件57.08%、微米與奈米級定位系統41.81%、其他1.11% (2023年)</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>大銀微系統-電機機械-上市</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>229926661.0</t>
         </is>
@@ -1231,85 +1281,95 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>NaT</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>71.0</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>-0.7</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>時碩工業</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>2.02</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>46.06</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>11.81</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>29.46</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AA6" t="inlineStr">
         <is>
           <t>72.79</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>7726</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>汽車零件51.82%、工業應用42.67%、航太零組件5.51% (2023年)</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>時碩工業-電機機械-上市</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>-87324894.0</t>
         </is>
@@ -1378,85 +1438,95 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>NaT</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>48.3</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>-0.82</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>信立</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>塑膠工業</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>2.41</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>18.36</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>0.9</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>10.66</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>14.46</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>3808</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>PU合成皮(人造皮)75.91%、其他19.04%、PVC柔軟皮5.05% (2023年)</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>信立-塑膠工業-上櫃</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>-337383.0</t>
         </is>
@@ -1530,80 +1600,90 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>177.0</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>1.14</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>日月光投控</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>2.94</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>71.30</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>36.94</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>23.63</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AA8" t="inlineStr">
         <is>
           <t>47.1</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>780935</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>電子產品構裝技術及製造服務46.09%、封裝服務44.13%、測試服務8.57%、其他1.20% (2023年)</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>日月光投控-半導體業-上市</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>5336020918.0</t>
         </is>
@@ -1677,80 +1757,90 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>57.3</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>-0.35</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>彬台</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>0.35</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>15.56</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>7.03</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>52.09</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AA9" t="inlineStr">
         <is>
           <t>41.41</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>2180</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>食品加工相關設備, 原材料與85.69%、食品飲料廠整廠工程及套裝工12.48%、勞務1.82% (2023年)</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>彬台-電機機械-上櫃</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>2733239.0</t>
         </is>
@@ -1824,80 +1914,90 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>357.5</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>4.69</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>上詮</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>0.14</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>25.15</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>3.69</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AA10" t="inlineStr">
         <is>
           <t>112.76</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>37052</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>光纖通訊被動元件91.94%、其他8.06% (2023年)</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>上詮-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>436113.0</t>
         </is>
@@ -1971,80 +2071,90 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>39.2</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>-6.67</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>英濟</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>17.42</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>9.15</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>85.22</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AA11" t="inlineStr">
         <is>
           <t>59.87</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>5175</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>電子塑膠零組件89.10%、模具4.00%、生醫材2.38%、光電產品2.06%、產品開發2.06%、其他0.39% (2023年)</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>英濟-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>200979.0</t>
         </is>
@@ -2113,85 +2223,95 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>NaT</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>26.15</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>-0.38</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>統一證</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>金融保險</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>5.05</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>23.61</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>1.83</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>9.44</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AA12" t="inlineStr">
         <is>
           <t>13.78</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>38070</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>股利收入38.38%、經紀手續費36.87%、營業證券出售損益24.38%、營業證券透過損益按公允價值18.12%、利息收入14.32%、其他營業收入6.15%、承銷業務1.09%、股務代理0.96%、財富管理0.59%、發行指數投資證券管理及手續0.09% (2023年)</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>統一證-金融保險-上市</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>36354560.0</t>
         </is>
@@ -2260,85 +2380,95 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>NaT</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>101.5</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>-2.4</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>直得</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>0.79</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>27.07</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>3.21</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>147.1</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="AA13" t="inlineStr">
         <is>
           <t>72.79</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>9060</t>
         </is>
       </c>
-      <c r="AA13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>線性滑軌及滑痤93.80%、線性馬達6.20% (2023年)</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>直得-電機機械-上市</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>-33309010.0</t>
         </is>
@@ -2407,85 +2537,95 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>NaT</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>108.5</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>-0.91</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>東陽</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>汽車工業</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>3.69</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>44.31</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
         <is>
           <t>10.68</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>16.49</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="AA14" t="inlineStr">
         <is>
           <t>141.64</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>64175</t>
         </is>
       </c>
-      <c r="AA14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>自製-汽車零組件-塑件67.38%、自製-汽車零組件-鐵件14.60%、外購產品11.23%、其他6.79% (2023年)</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>東陽-汽車工業-上市</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>-332431266.0</t>
         </is>

--- a/Result/check3.xlsx
+++ b/Result/check3.xlsx
@@ -598,52 +598,52 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-8.36</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>170.5</t>
+          <t>157.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>150.0</t>
+          <t>152.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>57</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -658,7 +658,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>--遠期量推</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>170.5</t>
+          <t>157.0</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-2.79</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>23236986.0</t>
+          <t>191627928.0</t>
         </is>
       </c>
     </row>
@@ -755,52 +755,52 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>-6.58</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>242.5</t>
+          <t>228.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>21.68</t>
+          <t>15.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:下降趨勢</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>-47</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>--遠期量推</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>--</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -830,12 +830,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>242.5</t>
+          <t>228.0</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1640612926.0</t>
+          <t>1872237410.0</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>142.0</t>
+          <t>143.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>13.21</t>
+          <t>35.57</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -942,22 +942,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>96</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>--遠期量推</t>
+          <t>--遠期量推近期量推量大</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -982,24 +982,24 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>142.0</t>
+          <t>143.0</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="T4" t="inlineStr">
         <is>
           <t>啟碁</t>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>1618853536.0</t>
+          <t>926186832.0</t>
         </is>
       </c>
     </row>
@@ -1069,17 +1069,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-1.33</t>
+          <t>-2.88</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>145.0</t>
+          <t>141.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1089,32 +1089,32 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>15.22</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:下降趨勢</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-66</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>26</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>--遠期量推</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>145.0</t>
+          <t>141.0</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-3.33</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>229926661.0</t>
+          <t>-1011907708.0</t>
         </is>
       </c>
     </row>
@@ -1226,17 +1226,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.98</t>
+          <t>-1.62</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>69.9</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1256,22 +1256,22 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-68</t>
+          <t>-82</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>58</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1301,12 +1301,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>69.9</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-87324894.0</t>
+          <t>-74611587.0</t>
         </is>
       </c>
     </row>
@@ -1383,17 +1383,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>49.35</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1403,17 +1403,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>均線:下降趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>-20.0</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-81</t>
+          <t>-68</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1458,12 +1458,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>49.35</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.82</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-337383.0</t>
+          <t>-19902.0</t>
         </is>
       </c>
     </row>
@@ -1540,52 +1540,52 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>-9.94</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>177.0</t>
+          <t>161.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>33.01</t>
+          <t>50.91</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>153</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>--</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1615,12 +1615,12 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>177.0</t>
+          <t>161.0</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>5336020918.0</t>
+          <t>-3519223628.0</t>
         </is>
       </c>
     </row>
@@ -1697,17 +1697,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>-6.16</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>53.9</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1727,22 +1727,22 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>275.0</t>
+          <t>278.0</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>127.0</t>
+          <t>124.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-79</t>
+          <t>-78</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>124</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>--遠期量推</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1772,12 +1772,12 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>53.9</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-2.36</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1842,7 +1842,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2733239.0</t>
+          <t>-286342.0</t>
         </is>
       </c>
     </row>
@@ -1854,17 +1854,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>-11.02</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>357.5</t>
+          <t>322.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1874,32 +1874,32 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-17.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-63</t>
+          <t>-87</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>--遠期量推</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1929,12 +1929,12 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>357.5</t>
+          <t>322.0</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>436113.0</t>
+          <t>745066.0</t>
         </is>
       </c>
     </row>
@@ -2011,52 +2011,52 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-1.9</t>
+          <t>-6.74</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>39.2</t>
+          <t>36.65</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>31.55</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>96.0</t>
+          <t>72.0</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>142.0</t>
+          <t>138.0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>-70</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>138</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>--遠期量推</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2086,12 +2086,12 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>39.2</t>
+          <t>36.65</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-6.67</t>
+          <t>-3.17</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>200979.0</t>
+          <t>-1332477.0</t>
         </is>
       </c>
     </row>
@@ -2168,17 +2168,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>26.15</t>
+          <t>26.1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9.85</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -2198,22 +2198,22 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-16.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-49</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -2243,12 +2243,12 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>26.15</t>
+          <t>26.1</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>36354560.0</t>
+          <t>16492125.0</t>
         </is>
       </c>
     </row>
@@ -2325,27 +2325,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-7.98</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>101.5</t>
+          <t>93.8</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -2355,22 +2355,22 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-84</t>
+          <t>-74</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>57</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -2385,12 +2385,12 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>--遠期量推</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>--</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2400,12 +2400,12 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>101.5</t>
+          <t>93.8</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>-2.4</t>
+          <t>-2.8</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>-33309010.0</t>
+          <t>-682385811.0</t>
         </is>
       </c>
     </row>
@@ -2482,17 +2482,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>108.5</t>
+          <t>109.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>13.27</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -2512,22 +2512,22 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>-19.0</t>
+          <t>-18.0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -2557,12 +2557,12 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>108.5</t>
+          <t>109.0</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>-332431266.0</t>
+          <t>353827082.0</t>
         </is>
       </c>
     </row>

--- a/Result/check3.xlsx
+++ b/Result/check3.xlsx
@@ -598,27 +598,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-8.36</t>
+          <t>-9.24</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>157.0</t>
+          <t>142.5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.36</t>
+          <t>11.3</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -633,17 +633,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>60</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--探底</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>157.0</t>
+          <t>142.5</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-2.79</t>
+          <t>-9.24</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>191627928.0</t>
+          <t>-915479677.0</t>
         </is>
       </c>
     </row>
@@ -755,17 +755,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-6.58</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>228.0</t>
+          <t>226.5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>15.97</t>
+          <t>14.7</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -785,22 +785,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-47</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -815,14 +815,14 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>False</t>
@@ -830,12 +830,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>228.0</t>
+          <t>226.5</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1872237410.0</t>
+          <t>-421302710.0</t>
         </is>
       </c>
     </row>
@@ -912,27 +912,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>143.0</t>
+          <t>148.5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>35.57</t>
+          <t>41.75</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -942,22 +942,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -987,12 +987,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>143.0</t>
+          <t>148.5</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>926186832.0</t>
+          <t>4427663499.0</t>
         </is>
       </c>
     </row>
@@ -1069,17 +1069,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-2.88</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>141.0</t>
+          <t>145.5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1089,32 +1089,32 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>16.41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>均線:下降趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-66</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>16</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--遠期量推</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>141.0</t>
+          <t>145.5</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-1011907708.0</t>
+          <t>-435214759.0</t>
         </is>
       </c>
     </row>
@@ -1226,17 +1226,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-1.62</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>69.9</t>
+          <t>69.4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1256,22 +1256,22 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>58.0</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-82</t>
+          <t>-83</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>46</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1301,12 +1301,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>69.9</t>
+          <t>69.4</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>-1.98</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-74611587.0</t>
+          <t>-159407817.0</t>
         </is>
       </c>
     </row>
@@ -1383,17 +1383,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>49.35</t>
+          <t>48.95</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-20.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-68</t>
+          <t>-73</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1458,12 +1458,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>49.35</t>
+          <t>48.95</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-19902.0</t>
+          <t>-39367.0</t>
         </is>
       </c>
     </row>
@@ -1540,17 +1540,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-9.94</t>
+          <t>-2.17</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>161.0</t>
+          <t>157.5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>50.91</t>
+          <t>27.33</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1570,32 +1570,32 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1615,19 +1615,19 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>161.0</t>
+          <t>157.5</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
+          <t>-2.48</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="T8" t="inlineStr">
         <is>
           <t>日月光投控</t>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-3519223628.0</t>
+          <t>-5065341253.0</t>
         </is>
       </c>
     </row>
@@ -1697,52 +1697,52 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-6.16</t>
+          <t>-4.68</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>53.9</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>278.0</t>
+          <t>286.0</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>124.0</t>
+          <t>123.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-78</t>
+          <t>-82</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>123</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1772,12 +1772,12 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>53.9</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-2.36</t>
+          <t>-7.57</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1842,7 +1842,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-286342.0</t>
+          <t>-121491.0</t>
         </is>
       </c>
     </row>
@@ -1854,27 +1854,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-11.02</t>
+          <t>-7.88</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>322.0</t>
+          <t>297.5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1884,64 +1884,64 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>-7.0</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>-37</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>297.5</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>-4.34</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>-87</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>2024-12-13</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>322.0</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="T10" t="inlineStr">
         <is>
           <t>上詮</t>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>745066.0</t>
+          <t>-584650.0</t>
         </is>
       </c>
     </row>
@@ -2011,17 +2011,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-6.74</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>36.65</t>
+          <t>37.55</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.36</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>72.0</t>
+          <t>73.0</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-70</t>
+          <t>-65</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2071,14 +2071,14 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>False</t>
@@ -2086,12 +2086,12 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>36.65</t>
+          <t>37.55</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-3.17</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-1332477.0</t>
+          <t>-675141.0</t>
         </is>
       </c>
     </row>
@@ -2168,27 +2168,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-1.15</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>26.1</t>
+          <t>25.8</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>16.27</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2228,12 +2228,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>--遠期量推</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--探底</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2243,12 +2243,12 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>26.1</t>
+          <t>25.8</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>16492125.0</t>
+          <t>-94754042.0</t>
         </is>
       </c>
     </row>
@@ -2325,17 +2325,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-7.98</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.8</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -2355,22 +2355,22 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-74</t>
+          <t>-73</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>53</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -2385,14 +2385,14 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>False</t>
@@ -2400,12 +2400,12 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>93.8</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>-2.8</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>-682385811.0</t>
+          <t>-190224742.0</t>
         </is>
       </c>
     </row>
@@ -2482,17 +2482,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>-0.9</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>109.0</t>
+          <t>108.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>13.27</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -2512,22 +2512,22 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>-18.0</t>
+          <t>-13.0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>-29</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -2557,12 +2557,12 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>109.0</t>
+          <t>108.0</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>-2.7</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>353827082.0</t>
+          <t>339705260.0</t>
         </is>
       </c>
     </row>

--- a/Result/check3.xlsx
+++ b/Result/check3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE14"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,22 +451,22 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>收盤價_x</t>
+          <t>LevelArea</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>LevelArea</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>交易量比</t>
+          <t>成交金額</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>成交股數</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -486,107 +486,97 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>遠交易量</t>
+          <t>highlight</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>highlight</t>
+          <t>highlight_date</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>highlight_date</t>
+          <t>recommend</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>recommend</t>
+          <t>recommend2</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>recommend2</t>
+          <t>量增</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>量增</t>
+          <t>change_quote</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>now_price</t>
+          <t>diff_quote</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>change_quote</t>
+          <t>Type0</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>diff_quote</t>
+          <t>Type1</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Type0</t>
+          <t>Type2</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Type1</t>
+          <t>殖利率</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Type2</t>
+          <t>每股淨值(元)</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>殖利率</t>
+          <t>每股營收(元)</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>每股淨值(元)</t>
+          <t>本益比</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>每股營收(元)</t>
+          <t>同業平均本益比</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>本益比</t>
+          <t>總市值</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>同業平均本益比</t>
+          <t>Volume_Price_Change_sum</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>總市值</t>
+          <t>營收比重</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>營收比重</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>Type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Volume_Price_Change_sum</t>
         </is>
       </c>
     </row>
@@ -598,152 +588,142 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-9.24</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>142.5</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>均線:下降趨勢</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>133859176</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>918.205</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>152.0</t>
+          <t>113.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>56</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-61</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>--遠期量推探底有撐</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--探底有撐</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>--探底</t>
+          <t>False</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>142.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-9.24</t>
+          <t>汎銓</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>汎銓</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>60.36</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>60.36</t>
+          <t>75.44</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>11.08</t>
+          <t>34.56</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>75.44</t>
+          <t>8829</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>34.56</t>
+          <t>-474027612</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>8829</t>
+          <t>分析服務100.00% (2023年)</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>分析服務100.00% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>汎銓-其他電子業-上市</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>-915479677.0</t>
         </is>
       </c>
     </row>
@@ -755,152 +735,142 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>226.5</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>均線:下降趨勢</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>14.7</t>
+          <t>567279342</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>均線:下降趨勢</t>
+          <t>2484.116</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>-65</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>--遠期量推</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>226.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>訊芯-KY</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>訊芯-KY</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>61.97</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>12.83</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>61.97</t>
+          <t>144.35</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>12.83</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>144.35</t>
+          <t>26060</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>-1220576861</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>26060</t>
+          <t>高速光纖收發模組64.42%、系統模組封裝產品35.58% (2023年)</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>高速光纖收發模組64.42%、系統模組封裝產品35.58% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
           <t>訊芯-KY-半導體業-上市</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>-421302710.0</t>
         </is>
       </c>
     </row>
@@ -912,152 +882,142 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>-0.68</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>148.5</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>41.75</t>
+          <t>1376540208</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>9278.064</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>--遠期量推近期量推量大</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>148.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>啟碁</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>啟碁</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>63.38</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>53.51</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>63.38</t>
+          <t>20.85</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>53.51</t>
+          <t>40.14</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>20.85</t>
+          <t>68898</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>40.14</t>
+          <t>2418200178</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>68898</t>
+          <t>無線通訊產品96.85%、其他3.15% (2023年)</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>無線通訊產品96.85%、其他3.15% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
           <t>啟碁-通信網路業-上市</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>4427663499.0</t>
         </is>
       </c>
     </row>
@@ -1069,152 +1029,142 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>145.5</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>16.41</t>
+          <t>2468701747</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>15923.234</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>16.0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>--遠期量推</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>145.5</t>
-        </is>
-      </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>大銀微系統</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>大銀微系統</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>31.72</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>31.72</t>
+          <t>604.17</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>72.79</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>604.17</t>
+          <t>17371</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>72.79</t>
+          <t>3180010272</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>17371</t>
+          <t>精密運動及控制元件57.08%、微米與奈米級定位系統41.81%、其他1.11% (2023年)</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>精密運動及控制元件57.08%、微米與奈米級定位系統41.81%、其他1.11% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
           <t>大銀微系統-電機機械-上市</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>-435214759.0</t>
         </is>
       </c>
     </row>
@@ -1226,152 +1176,142 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>69.4</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>均線:下降趨勢</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>44203778</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>均線:下降趨勢</t>
+          <t>622.478</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-83</t>
+          <t>-73</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>--探底</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>69.4</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-1.98</t>
+          <t>時碩工業</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>時碩工業</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>46.06</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>11.81</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>46.06</t>
+          <t>29.46</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>11.81</t>
+          <t>72.79</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>29.46</t>
+          <t>7726</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>72.79</t>
+          <t>-36537406</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>7726</t>
+          <t>汽車零件51.82%、工業應用42.67%、航太零組件5.51% (2023年)</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>汽車零件51.82%、工業應用42.67%、航太零組件5.51% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
           <t>時碩工業-電機機械-上市</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>-159407817.0</t>
         </is>
       </c>
     </row>
@@ -1383,152 +1323,142 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>48.95</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>147910</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>2978.0</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>-16.0</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-25.0</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-73</t>
+          <t>-48</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>48.95</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>信立</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>塑膠工業</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>信立</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>塑膠工業</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>18.36</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>18.36</t>
+          <t>10.66</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>14.46</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10.66</t>
+          <t>3808</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>14.46</t>
+          <t>162806</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>3808</t>
+          <t>PU合成皮(人造皮)75.91%、其他19.04%、PVC柔軟皮5.05% (2023年)</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>PU合成皮(人造皮)75.91%、其他19.04%、PVC柔軟皮5.05% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
           <t>信立-塑膠工業-上櫃</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>-39367.0</t>
         </is>
       </c>
     </row>
@@ -1540,152 +1470,142 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-2.17</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>157.5</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>27.33</t>
+          <t>2301389457</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>14259.978</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>157.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-2.48</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>71.30</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>36.94</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>71.30</t>
+          <t>23.63</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>36.94</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>23.63</t>
+          <t>780935</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>-7100265744</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>780935</t>
+          <t>電子產品構裝技術及製造服務46.09%、封裝服務44.13%、測試服務8.57%、其他1.20% (2023年)</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>電子產品構裝技術及製造服務46.09%、封裝服務44.13%、測試服務8.57%、其他1.20% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
           <t>日月光投控-半導體業-上市</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>-5065341253.0</t>
         </is>
       </c>
     </row>
@@ -1697,62 +1617,62 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-4.68</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>51.3</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>111301</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>2055.0</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>286.0</t>
+          <t>239.0</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>123.0</t>
+          <t>123</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-82</t>
+          <t>-83</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>True</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>--遠期量推</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1762,87 +1682,77 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>False</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>51.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-7.57</t>
+          <t>彬台</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>彬台</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>15.56</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>15.56</t>
+          <t>52.09</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>41.41</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>52.09</t>
+          <t>2180</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>41.41</t>
+          <t>-149550</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2180</t>
+          <t>食品加工相關設備, 原材料與85.69%、食品飲料廠整廠工程及套裝工12.48%、勞務1.82% (2023年)</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>食品加工相關設備, 原材料與85.69%、食品飲料廠整廠工程及套裝工12.48%、勞務1.82% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
           <t>彬台-電機機械-上櫃</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>-121491.0</t>
         </is>
       </c>
     </row>
@@ -1854,152 +1764,142 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-7.88</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>297.5</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>359821</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>1211.0</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>-75</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>True</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>--</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--探底</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>False</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>297.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-4.34</t>
+          <t>上詮</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>上詮</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>25.15</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>25.15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>112.76</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37052</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>112.76</t>
+          <t>-1466424</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>37052</t>
+          <t>光纖通訊被動元件91.94%、其他8.06% (2023年)</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>光纖通訊被動元件91.94%、其他8.06% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
           <t>上詮-通信網路業-上櫃</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>-584650.0</t>
         </is>
       </c>
     </row>
@@ -2011,152 +1911,142 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>-0.8</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>37.55</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>118276</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>3156.0</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>73.0</t>
+          <t>85.0</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>138.0</t>
+          <t>138</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-65</t>
+          <t>-77</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>True</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>--遠期量推</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>--遠期量推</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>False</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>37.55</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>英濟</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>英濟</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>17.42</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>17.42</t>
+          <t>85.22</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>59.87</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>85.22</t>
+          <t>5175</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>59.87</t>
+          <t>-92538</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>5175</t>
+          <t>電子塑膠零組件89.10%、模具4.00%、生醫材2.38%、光電產品2.06%、產品開發2.06%、其他0.39% (2023年)</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>電子塑膠零組件89.10%、模具4.00%、生醫材2.38%、光電產品2.06%、產品開發2.06%、其他0.39% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
           <t>英濟-電子零組件業-上櫃</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>-675141.0</t>
         </is>
       </c>
     </row>
@@ -2168,152 +2058,142 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-1.15</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>25.8</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>均線:下降趨勢</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>16.27</t>
+          <t>86950704</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>均線:下降趨勢</t>
+          <t>3368.419</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>23</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>--探底</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>25.8</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>統一證</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>統一證</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>23.61</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>23.61</t>
+          <t>9.44</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>13.78</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>9.44</t>
+          <t>38070</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>13.78</t>
+          <t>-228407976</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>38070</t>
+          <t>股利收入38.38%、經紀手續費36.87%、營業證券出售損益24.38%、營業證券透過損益按公允價值18.12%、利息收入14.32%、其他營業收入6.15%、承銷業務1.09%、股務代理0.96%、財富管理0.59%、發行指數投資證券管理及手續0.09% (2023年)</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>股利收入38.38%、經紀手續費36.87%、營業證券出售損益24.38%、營業證券透過損益按公允價值18.12%、利息收入14.32%、其他營業收入6.15%、承銷業務1.09%、股務代理0.96%、財富管理0.59%、發行指數投資證券管理及手續0.09% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
           <t>統一證-金融保險-上市</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>-94754042.0</t>
         </is>
       </c>
     </row>
@@ -2325,152 +2205,142 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>均線:下降趨勢</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>677806910</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>均線:下降趨勢</t>
+          <t>6857.448</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-73</t>
+          <t>-39</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>--遠期量推</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>直得</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>直得</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>27.07</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>27.07</t>
+          <t>147.1</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>72.79</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>147.1</t>
+          <t>9060</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>72.79</t>
+          <t>679922276</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>9060</t>
+          <t>線性滑軌及滑痤93.80%、線性馬達6.20% (2023年)</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>線性滑軌及滑痤93.80%、線性馬達6.20% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
           <t>直得-電機機械-上市</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>-190224742.0</t>
         </is>
       </c>
     </row>
@@ -2482,152 +2352,142 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>108.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>8.68</t>
+          <t>803305320</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>均線:下降趨勢</t>
+          <t>6999.053</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>-13.0</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>-29</t>
+          <t>116</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>True</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>108.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>東陽</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>汽車工業</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>東陽</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>汽車工業</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>44.31</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>10.68</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>44.31</t>
+          <t>16.49</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>10.68</t>
+          <t>141.64</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>16.49</t>
+          <t>64175</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>141.64</t>
+          <t>931437593</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>64175</t>
+          <t>自製-汽車零組件-塑件67.38%、自製-汽車零組件-鐵件14.60%、外購產品11.23%、其他6.79% (2023年)</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>自製-汽車零組件-塑件67.38%、自製-汽車零組件-鐵件14.60%、外購產品11.23%、其他6.79% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
           <t>東陽-汽車工業-上市</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>339705260.0</t>
         </is>
       </c>
     </row>

--- a/Result/check3.xlsx
+++ b/Result/check3.xlsx
@@ -588,12 +588,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>-2.02</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -608,27 +608,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>133859176</t>
+          <t>112965981.0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>918.205</t>
+          <t>765.698</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>113.0</t>
+          <t>110.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-61</t>
+          <t>-67</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -643,12 +643,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>--遠期量推探底有撐</t>
+          <t>--</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>--探底有撐</t>
+          <t>--探底</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -658,7 +658,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>-2.02</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>-474027612</t>
+          <t>-334479936.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -755,57 +755,57 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>567279342</t>
+          <t>782799399.0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2484.116</t>
+          <t>3343.108</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>-50</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>-65</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -860,7 +860,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>-1220576861</t>
+          <t>495128628.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -882,17 +882,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.68</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -902,27 +902,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1376540208</t>
+          <t>1438058602.0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>9278.064</t>
+          <t>9799.963</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -937,12 +937,12 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推量大</t>
+          <t>--遠期量推探底有撐</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--探底有撐</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>-1.68</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2418200178</t>
+          <t>-739866737.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1029,12 +1029,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9.93</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1049,27 +1049,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2468701747</t>
+          <t>5737245803.0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15923.234</t>
+          <t>34961.434</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>259</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>9.59</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>3180010272</t>
+          <t>9434085432.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1176,12 +1176,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1191,32 +1191,32 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>均線:下降趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>44203778</t>
+          <t>46993128.0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>622.478</t>
+          <t>651.291</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-73</t>
+          <t>-67</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>--遠期量推</t>
+          <t>--</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>-36537406</t>
+          <t>53853136.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1323,17 +1323,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1343,22 +1343,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>147910</t>
+          <t>120746.0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2978.0</t>
+          <t>2440.0</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-16.0</t>
+          <t>-12.0</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-39.0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>--探底</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>-0.3</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>162806</t>
+          <t>191973.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1470,47 +1470,47 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:下降趨勢</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2301389457</t>
+          <t>1414804236.0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>14259.978</t>
+          <t>8723.5</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-45</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>-7100265744</t>
+          <t>-2053026619.0</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1617,17 +1617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>-3.14</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1637,27 +1637,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>111301</t>
+          <t>63630.0</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2055.0</t>
+          <t>1190.0</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>239.0</t>
+          <t>205.0</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>123.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-83</t>
+          <t>-90</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>--遠期量推</t>
+          <t>--</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--探底</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>-3.14</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>-149550</t>
+          <t>-71240.0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1764,84 +1764,84 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>448819.0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1414.0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-9.0</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>-69</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>-50.0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>均線:橫盤震盪</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>359821</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1211.0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>-75</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>2024-12-13</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>--探底</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="R10" t="inlineStr">
         <is>
           <t>上詮</t>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>-1466424</t>
+          <t>-835752.0</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1911,57 +1911,57 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.8</t>
+          <t>9.83</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>118276</t>
+          <t>402188.0</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3156.0</t>
+          <t>9943.0</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>85.0</t>
+          <t>84.0</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>136.0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-77</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--追高</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>-1.06</t>
+          <t>8.76</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>-92538</t>
+          <t>462395.0</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -2058,84 +2058,84 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>均線:下降趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>86950704</t>
+          <t>75207683.0</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3368.419</t>
+          <t>2883.879</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>-3.0</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>--探底</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>-0.58</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="R12" t="inlineStr">
         <is>
           <t>統一證</t>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>-228407976</t>
+          <t>-88242713.0</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2205,12 +2205,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2220,32 +2220,32 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>均線:下降趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>677806910</t>
+          <t>829443067.0</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>6857.448</t>
+          <t>8059.515</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-39</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -2330,7 +2330,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>679922276</t>
+          <t>1801648976.0</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2352,59 +2352,59 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>-0.43</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>216301045.0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1883.358</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-7.0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>-41</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>2025-02-05</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>7.24</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>均線:橫盤震盪</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>803305320</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>6999.053</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>29.0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>2025-02-05</t>
-        </is>
-      </c>
       <c r="M14" t="inlineStr">
         <is>
           <t>--</t>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>931437593</t>
+          <t>341063912.0</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">

--- a/Result/check3.xlsx
+++ b/Result/check3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC14"/>
+  <dimension ref="A1:AF14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,130 +451,145 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>now_price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rt_price</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>LevelArea</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Trend</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>成交股數</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rt_量</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>短交易量o</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>遠交易量o</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>短交易量</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>highlight</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>highlight_date</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>recommend</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>recommend2</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>量增</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>成交金額</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>成交股數</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>短交易量o</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>遠交易量o</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>短交易量</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>highlight</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>highlight_date</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>recommend</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>recommend2</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>量增</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>change_quote</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
@@ -588,140 +603,155 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-2.02</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>148.5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>均線:下降趨勢</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>112965981.0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>765.698</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>110.0</t>
+          <t>711.926</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-67</t>
+          <t>104.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>-70</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>--探底</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>-2.02</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>105254401</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>汎銓</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>2.64</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>60.36</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>11.08</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>75.44</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>34.56</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>8829</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>-334479936.0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>126147596</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
         <is>
           <t>分析服務100.00% (2023年)</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>汎銓-其他電子業-上市</t>
         </is>
@@ -735,140 +765,155 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>238.5</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>90.0</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>均線:下降趨勢</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>782799399.0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3343.108</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>4652.799</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-50</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>-31</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>--追高</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>1106148055</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>訊芯-KY</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>1.01</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>61.97</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>12.83</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>144.35</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>47.1</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>26060</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>495128628.0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>2456226796</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
         <is>
           <t>高速光纖收發模組64.42%、系統模組封裝產品35.58% (2023年)</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>訊芯-KY-半導體業-上市</t>
         </is>
@@ -882,140 +927,155 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>-40.0</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>均線:上漲趨勢</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1438058602.0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>9799.963</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>4174.72</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>-31</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>--遠期量推探底有撐</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>--探底有撐</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>-1.68</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>608122025</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
         <is>
           <t>啟碁</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>4.22</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>63.38</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>53.51</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>20.85</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>40.14</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>68898</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>-739866737.0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>-3422720835</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
         <is>
           <t>無線通訊產品96.85%、其他3.15% (2023年)</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>啟碁-通信網路業-上市</t>
         </is>
@@ -1029,140 +1089,155 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>90.0</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>均線:上漲趨勢</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5737245803.0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>34961.434</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>22991.823</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>--遠期量推近期量推量大ShowTime</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
           <t>--追高</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>3913467706</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>大銀微系統</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>0.07</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>31.72</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>4.99</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>604.17</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>72.79</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>17371</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>9434085432.0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>12119415256</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
         <is>
           <t>精密運動及控制元件57.08%、微米與奈米級定位系統41.81%、其他1.11% (2023年)</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>大銀微系統-電機機械-上市</t>
         </is>
@@ -1176,140 +1251,155 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>72.5</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>90.0</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>均線:橫盤震盪</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>46993128.0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>651.291</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>465.82</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-67</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>-74</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>--追高</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>33739072</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>0.42</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>時碩工業</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>2.02</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>46.06</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>11.81</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AA6" t="inlineStr">
         <is>
           <t>29.46</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>72.79</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>7726</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>53853136.0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>124935978</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
         <is>
           <t>汽車零件51.82%、工業應用42.67%、航太零組件5.51% (2023年)</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>時碩工業-電機機械-上市</t>
         </is>
@@ -1323,140 +1413,155 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>120746.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2440.0</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>1027.0</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>-12.0</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-39.0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>-48</t>
-        </is>
-      </c>
       <c r="K7" t="inlineStr">
         <is>
+          <t>-47</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>-74</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>-0.3</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>50767</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>信立</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>塑膠工業</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>2.41</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>18.36</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>0.9</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>10.66</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>14.46</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>3808</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>191973.0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>319423</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
         <is>
           <t>PU合成皮(人造皮)75.91%、其他19.04%、PVC柔軟皮5.05% (2023年)</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>信立-塑膠工業-上櫃</t>
         </is>
@@ -1470,140 +1575,155 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>164.5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>均線:下降趨勢</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1414804236.0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>8723.5</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>15838.502</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>3.0</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>13.0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>-45</t>
-        </is>
-      </c>
       <c r="K8" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>--遠期量推</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>-0.31</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>2603441496</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>日月光投控</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>2.94</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>71.30</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>36.94</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AA8" t="inlineStr">
         <is>
           <t>23.63</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>47.1</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>780935</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>-2053026619.0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>3786739877</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
         <is>
           <t>電子產品構裝技術及製造服務46.09%、封裝服務44.13%、測試服務8.57%、其他1.20% (2023年)</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>日月光投控-半導體業-上市</t>
         </is>
@@ -1617,140 +1737,155 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-3.14</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>55.9</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>均線:橫盤震盪</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>63630.0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1190.0</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>205.0</t>
+          <t>1433.0</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>123.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-90</t>
+          <t>138.0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>-88</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2025-01-14</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>--探底</t>
-        </is>
-      </c>
       <c r="O9" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>-3.14</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>77718</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>彬台</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>0.35</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15.56</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>7.03</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AA9" t="inlineStr">
         <is>
           <t>52.09</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>41.41</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>2180</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>-71240.0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>125389</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
         <is>
           <t>食品加工相關設備, 原材料與85.69%、食品飲料廠整廠工程及套裝工12.48%、勞務1.82% (2023年)</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>彬台-電機機械-上櫃</t>
         </is>
@@ -1764,140 +1899,155 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9.74</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>335.0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>90.0</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>均線:橫盤震盪</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>448819.0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1414.0</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>1626.0</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>-9.0</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>-69</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>-63</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>--遠期量推</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>--追高</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>7.92</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>549291</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>上詮</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>0.14</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>25.15</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>3.69</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>112.76</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>37052</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>-835752.0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>638289</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
         <is>
           <t>光纖通訊被動元件91.94%、其他8.06% (2023年)</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>上詮-通信網路業-上櫃</t>
         </is>
@@ -1911,140 +2061,155 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>9.83</t>
+          <t>-1.82</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>均線:上漲趨勢</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>402188.0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>9943.0</t>
-        </is>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>84.0</t>
+          <t>18167.0</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>136.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>--遠期量推</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>742281</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>-2.66</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>英濟</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
         <is>
           <t>17.42</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>9.15</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AA11" t="inlineStr">
         <is>
           <t>85.22</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>59.87</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>5175</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>462395.0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>-458369</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
         <is>
           <t>電子塑膠零組件89.10%、模具4.00%、生醫材2.38%、光電產品2.06%、產品開發2.06%、其他0.39% (2023年)</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>英濟-電子零組件業-上櫃</t>
         </is>
@@ -2058,140 +2223,155 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>75207683.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2883.879</t>
+          <t>均線:下降趨勢</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>2728.359</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>-24</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
         <is>
           <t>--遠期量推</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>70956379</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>-0.76</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>統一證</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>金融保險</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>5.05</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>23.61</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>1.83</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AA12" t="inlineStr">
         <is>
           <t>9.44</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>13.78</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>38070</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>-88242713.0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>-82699400</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
         <is>
           <t>股利收入38.38%、經紀手續費36.87%、營業證券出售損益24.38%、營業證券透過損益按公允價值18.12%、利息收入14.32%、其他營業收入6.15%、承銷業務1.09%、股務代理0.96%、財富管理0.59%、發行指數投資證券管理及手續0.09% (2023年)</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>統一證-金融保險-上市</t>
         </is>
@@ -2205,140 +2385,155 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>103.5</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>90.0</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>均線:橫盤震盪</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>829443067.0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>8059.515</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>2754.422</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>-72</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>--遠期量推</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>--追高</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>3.6</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>284669016</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>直得</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>0.79</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>27.07</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>3.21</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AA13" t="inlineStr">
         <is>
           <t>147.1</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>72.79</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>9060</t>
         </is>
       </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>1801648976.0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>1222580961</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
         <is>
           <t>線性滑軌及滑痤93.80%、線性馬達6.20% (2023年)</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>直得-電機機械-上市</t>
         </is>
@@ -2352,140 +2547,155 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>117.5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>均線:上漲趨勢</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>216301045.0</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1883.358</t>
-        </is>
-      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>4839.186</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>-41</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-02-05</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>568164205</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>東陽</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>汽車工業</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>3.69</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
         <is>
           <t>44.31</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>10.68</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="AA14" t="inlineStr">
         <is>
           <t>16.49</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>141.64</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>64175</t>
         </is>
       </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>341063912.0</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>1155168480</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
         <is>
           <t>自製-汽車零組件-塑件67.38%、自製-汽車零組件-鐵件14.60%、外購產品11.23%、其他6.79% (2023年)</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>東陽-汽車工業-上市</t>
         </is>

--- a/Result/check3.xlsx
+++ b/Result/check3.xlsx
@@ -603,17 +603,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>148.5</t>
+          <t>149.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>711.926</t>
+          <t>493.964</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -643,17 +643,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>104.0</t>
+          <t>72.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>67.0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-70</t>
+          <t>-79</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>105254401</t>
+          <t>73531724.0</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>126147596</t>
+          <t>65820144.0</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -765,17 +765,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>238.5</t>
+          <t>232.5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -785,17 +785,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>均線:下降趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4652.799</t>
+          <t>2831.084</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -805,59 +805,59 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>-3.0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>-59</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>661126903.0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>-1.27</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>-31</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>1106148055</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="U3" t="inlineStr">
         <is>
           <t>訊芯-KY</t>
@@ -905,7 +905,7 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2456226796</t>
+          <t>1227820551.0</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -927,99 +927,99 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-1.71</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>143.5</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3796.317</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>-37</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>2025-02-07</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>544829641.0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>-1.71</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>146.0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>4174.72</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>23.0</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>-31</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2025-02-07</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>--探底</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>608122025</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="U4" t="inlineStr">
         <is>
           <t>啟碁</t>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-3422720835</t>
+          <t>-2591010268.0</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1089,17 +1089,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>-2.38</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>169.0</t>
+          <t>165.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>22991.823</t>
+          <t>9821.553</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1129,52 +1129,52 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>--遠期量推近期量推量大</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>3913467706</t>
+          <t>1639735644.0</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>-1.79</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>12119415256</t>
+          <t>8010977865.0</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
@@ -1251,17 +1251,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>72.5</t>
+          <t>74.1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>465.82</t>
+          <t>2137.362</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1291,59 +1291,59 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>-13.0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>159277593.0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>-74</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>33739072</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="U6" t="inlineStr">
         <is>
           <t>時碩工業</t>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>124935978</t>
+          <t>240009793.0</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
@@ -1413,17 +1413,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>49.15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1433,17 +1433,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1027.0</t>
+          <t>1277.0</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1453,17 +1453,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-47</t>
+          <t>-54.0</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-74</t>
+          <t>-63</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>--探底</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1493,12 +1493,12 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>50767</t>
+          <t>62789.0</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>-1.11</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>319423</t>
+          <t>108724.0</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
@@ -1575,17 +1575,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>164.5</t>
+          <t>166.5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1600,12 +1600,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>均線:下降趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>15838.502</t>
+          <t>19632.706</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1615,17 +1615,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1655,12 +1655,12 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>2603441496</t>
+          <t>3257975806.0</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>3786739877</t>
+          <t>4486794566.0</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
@@ -1737,17 +1737,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>-3.47</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>55.9</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1757,17 +1757,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1433.0</t>
+          <t>983.0</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1777,17 +1777,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>138.0</t>
+          <t>85.0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>122.0</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-88</t>
+          <t>-92</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1802,12 +1802,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>--遠期量推</t>
+          <t>--</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>--</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1817,12 +1817,12 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>77718</t>
+          <t>53677.0</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>125389</t>
+          <t>-39589.0</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
@@ -1899,17 +1899,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>335.0</t>
+          <t>337.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1924,12 +1924,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1626.0</t>
+          <t>8909.0</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1939,17 +1939,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-63</t>
+          <t>82</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>--遠期量推</t>
+          <t>--遠期量推近期量推</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1974,17 +1974,17 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>549291</t>
+          <t>3005459.0</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>638289</t>
+          <t>4003569.0</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
@@ -2061,17 +2061,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-1.82</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>40.2</t>
+          <t>40.3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>18167.0</t>
+          <t>13692.0</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2101,17 +2101,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>68.0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -2141,12 +2141,12 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>742281</t>
+          <t>560400.0</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-458369</t>
+          <t>220307.0</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>25.9</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2728.359</t>
+          <t>2365.194</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2268,12 +2268,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-34</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -2288,12 +2288,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>--遠期量推</t>
+          <t>--</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--探底</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -2303,12 +2303,12 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>70956379</t>
+          <t>61289351.0</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>-82699400</t>
+          <t>-57038047.0</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
@@ -2385,99 +2385,99 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>-1.44</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2190.925</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>-69</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>224804333.0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>-1.92</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>103.5</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>均線:橫盤震盪</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2754.422</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>12.0</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>-72</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>--遠期量推</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>284669016</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="U13" t="inlineStr">
         <is>
           <t>直得</t>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>1222580961</t>
+          <t>319969718.0</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
@@ -2547,17 +2547,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>117.5</t>
+          <t>116.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>4839.186</t>
+          <t>1460.894</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2587,17 +2587,17 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>-56</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>--</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -2627,12 +2627,12 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>568164205</t>
+          <t>170118131.0</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>1155168480</t>
+          <t>181745029.0</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">

--- a/Result/check3.xlsx
+++ b/Result/check3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF14"/>
+  <dimension ref="A1:AF10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,97 +598,97 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6830</t>
+          <t>9911</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>85.6</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>319.956</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>2025-02-10</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>149.0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>均線:下降趨勢</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>493.964</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>72.0</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>67.0</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>-79</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>--遠期量推</t>
+          <t>--</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--追高</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>73531724.0</t>
+          <t>27393335</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>汎銓</t>
+          <t>櫻花</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>居家生活</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -713,69 +713,69 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>60.36</t>
+          <t>28.36</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>11.08</t>
+          <t>11.26</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>75.44</t>
+          <t>13.61</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>34.56</t>
+          <t>14.65</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>8829</t>
+          <t>18419</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>65820144.0</t>
+          <t>69755550</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>分析服務100.00% (2023年)</t>
+          <t>廚房配備33.41%、系統廚具28.41%、熱水器26.83%、其他11.35% (2023年)</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>汎銓-其他電子業-上市</t>
+          <t>櫻花-居家生活-上市</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6451</t>
+          <t>6577</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-2.55</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>232.5</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -785,17 +785,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2831.084</t>
+          <t>262.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -805,52 +805,52 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>130.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>36</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-59</t>
+          <t>241</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--遠期量推近期量推探底有撐</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--探底有撐</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>661126903.0</t>
+          <t>26393</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-1.27</t>
+          <t>-1.48</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -860,84 +860,84 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>訊芯-KY</t>
+          <t>勁豐</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>61.97</t>
+          <t>24.39</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12.83</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>144.35</t>
+          <t>15.06</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>27.14</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>26060</t>
+          <t>5345</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>1227820551.0</t>
+          <t>90202</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>高速光纖收發模組64.42%、系統模組封裝產品35.58% (2023年)</t>
+          <t>醫療用觸控顯示器34.37%、嵌入式控制系統30.55%、特殊應用顯示模組25.11%、其他9.98% (2023年)</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>訊芯-KY-半導體業-上市</t>
+          <t>勁豐-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6285</t>
+          <t>6290</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-1.71</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>143.5</t>
+          <t>88.1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3796.317</t>
+          <t>15392.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -967,17 +967,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>140.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>62</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>318</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -987,32 +987,32 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--遠期量推近期量推ShowTime</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>--探底</t>
+          <t>--追高</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>544829641.0</t>
+          <t>1334686</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-1.71</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -1022,84 +1022,84 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>啟碁</t>
+          <t>良維</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>63.38</t>
+          <t>39.19</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>53.51</t>
+          <t>13.57</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>20.85</t>
+          <t>17.22</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>40.14</t>
+          <t>59.87</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>68898</t>
+          <t>12382</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-2591010268.0</t>
+          <t>2438554</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>無線通訊產品96.85%、其他3.15% (2023年)</t>
+          <t>電源傳輸線組82.40%、訊號傳輸線組8.82%、電源, 訊號傳輸及車用線材6.68%、充電器轉接頭與一體式充電器2.07%、其他0.03% (2023年)</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>啟碁-通信網路業-上市</t>
+          <t>良維-電子零組件業-上櫃</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4576</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-2.38</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>165.0</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>9821.553</t>
+          <t>14103.58</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1129,17 +1129,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>123.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>39</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>602</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1149,32 +1149,32 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>1639735644.0</t>
+          <t>1259206985</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-1.79</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1184,12 +1184,12 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>大銀微系統</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1199,69 +1199,69 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>31.72</t>
+          <t>47.51</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>77.76</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>604.17</t>
+          <t>8.53</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>72.79</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>17371</t>
+          <t>6534</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>8010977865.0</t>
+          <t>2029183450</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>精密運動及控制元件57.08%、微米與奈米級定位系統41.81%、其他1.11% (2023年)</t>
+          <t>DRAM模組41.43%、快閃記憶體(NAND Flash)37.18%、策略性產品19.12%、記憶體產品2.23%、其他0.04% (2023年)</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>大銀微系統-電機機械-上市</t>
+          <t>十銓-半導體業-上市</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4566</t>
+          <t>4540</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>74.1</t>
+          <t>56.9</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1271,17 +1271,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2137.362</t>
+          <t>13920.544</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1291,32 +1291,32 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>67.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-13.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>60</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--遠期量推近期量推量大</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1326,17 +1326,17 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>159277593.0</t>
+          <t>792578090</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>時碩工業</t>
+          <t>全球傳動</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1361,22 +1361,22 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>46.06</t>
+          <t>30.77</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11.81</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>29.46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1386,44 +1386,44 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>7726</t>
+          <t>4815</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>240009793.0</t>
+          <t>1444027289</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>汽車零件51.82%、工業應用42.67%、航太零組件5.51% (2023年)</t>
+          <t>滾珠螺桿64.74%、線性滑軌28.70%、滾珠花鍵5.38%、其他1.19% (2023年)</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>時碩工業-電機機械-上市</t>
+          <t>全球傳動-電機機械-上市</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4303</t>
+          <t>3066</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>49.15</t>
+          <t>27.55</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1433,17 +1433,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1277.0</t>
+          <t>3360.0</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1453,52 +1453,52 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>204.0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-54.0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-63</t>
+          <t>392</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--遠期量推近期量推</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>--探底</t>
+          <t>--追高</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>62789.0</t>
+          <t>92885</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-1.11</t>
+          <t>-1.78</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>信立</t>
+          <t>李洲</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>塑膠工業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1523,69 +1523,69 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>18.36</t>
+          <t>14.61</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>10.66</t>
+          <t>18.78</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14.46</t>
+          <t>96.61</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>3808</t>
+          <t>1857</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>108724.0</t>
+          <t>246875</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>PU合成皮(人造皮)75.91%、其他19.04%、PVC柔軟皮5.05% (2023年)</t>
+          <t>LED 光電產品88.84%、磊晶片11.16% (2023年)</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>信立-塑膠工業-上櫃</t>
+          <t>李洲-光電業-上櫃</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>3019</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>166.5</t>
+          <t>193.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1595,17 +1595,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>19632.706</t>
+          <t>76142.193</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1615,32 +1615,32 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>151</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>--遠期量推</t>
+          <t>--遠期量推近期量推量大ShowTime</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1650,17 +1650,17 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>3257975806.0</t>
+          <t>14636861143</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>亞光</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -1685,69 +1685,69 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>71.30</t>
+          <t>49.72</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>36.94</t>
+          <t>24.45</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>23.63</t>
+          <t>29.04</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>60.87</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>780935</t>
+          <t>44120</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>4486794566.0</t>
+          <t>12555299604</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>電子產品構裝技術及製造服務46.09%、封裝服務44.13%、測試服務8.57%、其他1.20% (2023年)</t>
+          <t>光學元件51.91%、影像感測元件產品19.78%、光電零組件11.82%、數位相機11.22%、光電產品5.27% (2023年)</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>日月光投控-半導體業-上市</t>
+          <t>亞光-光電業-上市</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3379</t>
+          <t>2327</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-3.47</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>575.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>983.0</t>
+          <t>1965.458</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1777,39 +1777,39 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>85.0</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>122.0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-92</t>
+          <t>-31</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
       <c r="Q9" t="inlineStr">
         <is>
           <t>False</t>
@@ -1817,12 +1817,12 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>53677.0</t>
+          <t>1133068845</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1832,84 +1832,84 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>彬台</t>
+          <t>國巨</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>15.56</t>
+          <t>303.31</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>62.95</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>52.09</t>
+          <t>13.23</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>41.41</t>
+          <t>31.19</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2180</t>
+          <t>278604</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-39589.0</t>
+          <t>-1006330662</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>食品加工相關設備, 原材料與85.69%、食品飲料廠整廠工程及套裝工12.48%、勞務1.82% (2023年)</t>
+          <t>磁性元件34.67%、積層陶瓷電容器(MLCC)22.08%、鉭質電容器16.42%、晶片電阻器13.35%、其他10.99%、感測器2.51% (2023年)</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>彬台-電機機械-上櫃</t>
+          <t>國巨-電子零組件業-上市</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3363</t>
+          <t>1319</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>337.0</t>
+          <t>117.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1929,7 +1929,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>8909.0</t>
+          <t>2577.005</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1939,52 +1939,52 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>-27</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>--遠期量推近期量推</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>3005459.0</t>
+          <t>301097948</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -1994,708 +1994,60 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>上詮</t>
+          <t>東陽</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>汽車工業</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>25.15</t>
+          <t>44.31</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>10.68</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16.49</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>112.76</t>
+          <t>141.64</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>37052</t>
+          <t>64175</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>4003569.0</t>
+          <t>699144022</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>光纖通訊被動元件91.94%、其他8.06% (2023年)</t>
+          <t>自製-汽車零組件-塑件67.38%、自製-汽車零組件-鐵件14.60%、外購產品11.23%、其他6.79% (2023年)</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
-        <is>
-          <t>上詮-通信網路業-上櫃</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3294</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2025-02-10</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>40.3</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>13692.0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>68.0</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>--遠期量推</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>560400.0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>1.9</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>英濟</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>17.42</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>9.15</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>85.22</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>59.87</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>5175</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>220307.0</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>電子塑膠零組件89.10%、模具4.00%、生醫材2.38%、光電產品2.06%、產品開發2.06%、其他0.39% (2023年)</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>英濟-電子零組件業-上櫃</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2855</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2025-02-10</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-0.39</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>25.9</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>均線:下降趨勢</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2365.194</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>-5.0</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>20.0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>-34</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>--探底</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>61289351.0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>統一證</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>金融保險</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>23.61</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>9.44</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>13.78</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>38070</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>-57038047.0</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>股利收入38.38%、經紀手續費36.87%、營業證券出售損益24.38%、營業證券透過損益按公允價值18.12%、利息收入14.32%、其他營業收入6.15%、承銷業務1.09%、股務代理0.96%、財富管理0.59%、發行指數投資證券管理及手續0.09% (2023年)</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>統一證-金融保險-上市</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>1597</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2025-02-10</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>-1.44</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>102.0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>均線:橫盤震盪</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2190.925</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>24.0</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>-69</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>224804333.0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>-1.92</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>直得</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>電機機械</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>27.07</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>147.1</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>72.79</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>9060</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>319969718.0</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>線性滑軌及滑痤93.80%、線性馬達6.20% (2023年)</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>直得-電機機械-上市</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>1319</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2025-02-10</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>-1.28</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>116.0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>1460.894</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>-56</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>2025-02-05</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>170118131.0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>-1.28</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>東陽</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>汽車工業</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>44.31</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>10.68</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>16.49</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>141.64</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>64175</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>181745029.0</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>自製-汽車零組件-塑件67.38%、自製-汽車零組件-鐵件14.60%、外購產品11.23%、其他6.79% (2023年)</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
         <is>
           <t>東陽-汽車工業-上市</t>
         </is>

--- a/Result/check3.xlsx
+++ b/Result/check3.xlsx
@@ -603,17 +603,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>85.6</t>
+          <t>86.1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>319.956</t>
+          <t>316.183</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -643,17 +643,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>27393335</t>
+          <t>27212018.0</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>69755550</t>
+          <t>110177208.0</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -765,17 +765,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>-1.09</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>98.9</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>262.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -805,17 +805,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>130.0</t>
+          <t>134.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>12</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推探底有撐</t>
+          <t>--遠期量推探底有撐</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -840,17 +840,17 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>26393</t>
+          <t>8940.0</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-1.48</t>
+          <t>-2.08</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -905,7 +905,7 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>90202</t>
+          <t>69442.0</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.1</t>
+          <t>88.7</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>15392.0</t>
+          <t>13508.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -967,17 +967,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>140.0</t>
+          <t>161.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>67.0</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>205</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推ShowTime</t>
+          <t>--遠期量推近期量推</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1007,12 +1007,12 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>1334686</t>
+          <t>1203599.0</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>-1.99</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>2438554</t>
+          <t>3137418.0</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1089,17 +1089,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>88.4</t>
+          <t>87.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>14103.58</t>
+          <t>4359.783</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1129,17 +1129,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>123.0</t>
+          <t>118.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>94</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推量大</t>
+          <t>--遠期量推</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>1259206985</t>
+          <t>381999620.0</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>-2.25</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>2029183450</t>
+          <t>1618682089.0</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
@@ -1251,17 +1251,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>56.9</t>
+          <t>57.2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>13920.544</t>
+          <t>25359.583</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1291,17 +1291,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>67.0</t>
+          <t>88.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>159</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1331,12 +1331,12 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>792578090</t>
+          <t>1471931833.0</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>1444027289</t>
+          <t>1779513808.0</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
@@ -1413,17 +1413,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>-4.84</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27.55</t>
+          <t>26.2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>3360.0</t>
+          <t>1310.0</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1453,17 +1453,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>204.0</t>
+          <t>203.0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>67.0</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>68</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推</t>
+          <t>--</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>92885</t>
+          <t>35194.0</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-1.78</t>
+          <t>-6.09</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>246875</t>
+          <t>157372.0</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
@@ -1575,17 +1575,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>193.0</t>
+          <t>198.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>76142.193</t>
+          <t>80820.77</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1615,17 +1615,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>56.0</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>147</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推量大ShowTime</t>
+          <t>--遠期量推近期量推量大</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1655,12 +1655,12 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>14636861143</t>
+          <t>16262515376.0</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>12555299604</t>
+          <t>20662891398.0</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
@@ -1737,99 +1737,99 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>578.0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2460.823</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>-14</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>1419864190.0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>-0.34</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>575.0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>1965.458</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>33.0</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>-31</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>--遠期量推</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>1133068845</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>-0.52</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="U9" t="inlineStr">
         <is>
           <t>國巨</t>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-1006330662</t>
+          <t>2163462907.0</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
@@ -1899,17 +1899,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>-1.7</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>117.0</t>
+          <t>115.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1924,12 +1924,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2577.005</t>
+          <t>1143.537</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1939,17 +1939,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-66</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1979,12 +1979,12 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>301097948</t>
+          <t>132537952.0</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-2.13</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>699144022</t>
+          <t>-1558135.0</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">

--- a/Result/check3.xlsx
+++ b/Result/check3.xlsx
@@ -603,94 +603,94 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>86.9</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>526.526</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>45579155</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
           <t>0.58</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>86.1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>316.183</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>22.0</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>2025-02-10</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>27212018.0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
       <c r="T2" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -713,7 +713,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -728,22 +728,22 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>13.61</t>
+          <t>14.2</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14.65</t>
+          <t>15.52</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>18419</t>
+          <t>19215</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>110177208.0</t>
+          <t>100184508</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -765,17 +765,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-1.09</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>98.9</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -805,17 +805,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>134.0</t>
+          <t>123.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>-38</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -845,12 +845,12 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>8940.0</t>
+          <t>5069</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-2.08</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>7.53</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -890,22 +890,22 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>15.06</t>
+          <t>16.75</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>27.14</t>
+          <t>28.95</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>5345</t>
+          <t>5946</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>69442.0</t>
+          <t>22522</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.7</t>
+          <t>87.3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>13508.0</t>
+          <t>5088.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -967,17 +967,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>161.0</t>
+          <t>165.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>67.0</t>
+          <t>68</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推</t>
+          <t>--遠期量推</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1002,17 +1002,17 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>1203599.0</t>
+          <t>444383</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-1.99</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1052,22 +1052,22 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>17.22</t>
+          <t>19.27</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>59.87</t>
+          <t>65.97</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>12382</t>
+          <t>13859</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>3137418.0</t>
+          <t>2093902</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1089,17 +1089,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-1.57</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.0</t>
+          <t>91.7</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>4359.783</t>
+          <t>11118.631</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1129,17 +1129,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>118.0</t>
+          <t>143.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>51</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>292</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>--遠期量推</t>
+          <t>--遠期量推近期量推量大ShowTime</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>381999620.0</t>
+          <t>1014351685</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-2.25</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1214,22 +1214,22 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>8.53</t>
+          <t>10.17</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>48.52</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>6534</t>
+          <t>7791</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>1618682089.0</t>
+          <t>1891559050</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
@@ -1251,17 +1251,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>57.2</t>
+          <t>56.3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>25359.583</t>
+          <t>7339.966</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1291,17 +1291,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>83.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>-27</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推量大</t>
+          <t>--遠期量推</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1326,24 +1326,24 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>1471931833.0</t>
+          <t>414557897</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
+          <t>-1.57</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="U6" t="inlineStr">
         <is>
           <t>全球傳動</t>
@@ -1381,17 +1381,17 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>72.79</t>
+          <t>76.26</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>4815</t>
+          <t>5357</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>1779513808.0</t>
+          <t>1849952026</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
@@ -1413,17 +1413,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-4.84</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26.2</t>
+          <t>26.15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1310.0</t>
+          <t>1016.0</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1453,17 +1453,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>203.0</t>
+          <t>196.0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>67.0</t>
+          <t>70</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>20</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--遠期量推</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1493,12 +1493,12 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>35194.0</t>
+          <t>27144</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-6.09</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1538,22 +1538,22 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>18.78</t>
+          <t>21.97</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>96.61</t>
+          <t>98.54</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>1857</t>
+          <t>2172</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>157372.0</t>
+          <t>30547</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
@@ -1575,17 +1575,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>198.0</t>
+          <t>199.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>80820.77</t>
+          <t>39783.238</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1620,12 +1620,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>56</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推量大</t>
+          <t>--遠期量推</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1650,17 +1650,17 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>16262515376.0</t>
+          <t>7992848343</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1700,22 +1700,22 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>29.04</t>
+          <t>36.58</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>60.87</t>
+          <t>59.43</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>44120</t>
+          <t>55569</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>20662891398.0</t>
+          <t>38892224862</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
@@ -1737,17 +1737,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>578.0</t>
+          <t>593.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2460.823</t>
+          <t>6280.917</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1777,17 +1777,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>98</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>--遠期量推</t>
+          <t>--遠期量推近期量推量大</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1812,17 +1812,17 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>1419864190.0</t>
+          <t>3697698351</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1862,22 +1862,22 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>13.23</t>
+          <t>14.61</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>31.19</t>
+          <t>31.95</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>278604</t>
+          <t>307658</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>2163462907.0</t>
+          <t>3967818696</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
@@ -1899,17 +1899,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-1.7</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>115.0</t>
+          <t>115.5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1929,7 +1929,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1143.537</t>
+          <t>1312.644</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1939,17 +1939,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-66</t>
+          <t>-54</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1979,12 +1979,12 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>132537952.0</t>
+          <t>152146153</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-2.13</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -2024,22 +2024,22 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>16.49</t>
+          <t>17.55</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>141.64</t>
+          <t>146.81</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>64175</t>
+          <t>68316</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-1558135.0</t>
+          <t>320706149</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">

--- a/Result/check3.xlsx
+++ b/Result/check3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF10"/>
+  <dimension ref="A1:AF8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,72 +466,72 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>MACD</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>MACD-SL</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>價能O</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>成交股數</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>rt_量</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>短交易量o</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>遠交易量o</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>短交易量</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>highlight</t>
-        </is>
-      </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>Trend_change</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>recommend</t>
-        </is>
-      </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>recommend2</t>
+          <t>成交金額</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>量增</t>
+          <t>change_quote</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>成交金額</t>
+          <t>diff_quote</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>change_quote</t>
+          <t>價能</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>diff_quote</t>
+          <t>量比</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
@@ -598,22 +598,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>9911</t>
+          <t>8028</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>86.9</t>
+          <t>167.5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -623,87 +623,87 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>526.526</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>75699.164</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>318.0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推量大</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>12654318089.0</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>45579155</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>櫻花</t>
+          <t>昇陽半導體</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>居家生活</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -713,69 +713,69 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>28.36</t>
+          <t>22.69</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>11.26</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>14.2</t>
+          <t>98.53</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>15.52</t>
+          <t>52.88</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>19215</t>
+          <t>28915</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>100184508</t>
+          <t>24072456210.0</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>廚房配備33.41%、系統廚具28.41%、熱水器26.83%、其他11.35% (2023年)</t>
+          <t>晶圓代工100.00% (2023年)</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>櫻花-居家生活-上市</t>
+          <t>昇陽半導體-半導體業-上市</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6577</t>
+          <t>6558</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>62.6</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -785,159 +785,159 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-7.19</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>123.0</t>
+          <t>58625.806</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-38</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>-28.0</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>--遠期量推探底有撐</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>--探底有撐</t>
+          <t>3802009120.0</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>-2.03</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>5069</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>-7.19</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>46.15</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>勁豐</t>
+          <t>興能高</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>24.39</t>
+          <t>15.99</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>16.75</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>28.95</t>
+          <t>36.22</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>5946</t>
+          <t>5412</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>22522</t>
+          <t>4528835375.0</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>醫療用觸控顯示器34.37%、嵌入式控制系統30.55%、特殊應用顯示模組25.11%、其他9.98% (2023年)</t>
+          <t>電池組93.08%、電池芯6.92% (2023年)</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>勁豐-電腦及週邊設備業-上櫃</t>
+          <t>興能高-其他電子業-上市</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6290</t>
+          <t>4916</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>9.83</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>87.3</t>
+          <t>47.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -947,159 +947,159 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5088.0</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.10</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>165.0</t>
+          <t>33838.821</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>145.0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>--遠期量推</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>1544581062.0</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>8.23</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>444383</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>9.10</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>66.90</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>良維</t>
+          <t>事欣科</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>39.19</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13.57</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>19.27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>65.97</t>
+          <t>73.62</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>13859</t>
+          <t>4658</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>2093902</t>
+          <t>4802104388.0</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>電源傳輸線組82.40%、訊號傳輸線組8.82%、電源, 訊號傳輸及車用線材6.68%、充電器轉接頭與一體式充電器2.07%、其他0.03% (2023年)</t>
+          <t>航太及國防工業75.60%、博奕及工業電腦24.40% (2023年)</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>良維-電子零組件業-上櫃</t>
+          <t>事欣科-電腦及週邊設備業-上市</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>2605</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>-1.08</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.7</t>
+          <t>27.3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1109,87 +1109,87 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>11118.631</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>143.0</t>
+          <t>5187.414</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>72.0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推量大ShowTime</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>141896657.0</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>-1.62</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>1014351685</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>新興</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1199,69 +1199,69 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>47.51</t>
+          <t>29.58</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>77.76</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>10.17</t>
+          <t>11.33</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>48.52</t>
+          <t>21.62</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>7791</t>
+          <t>15980</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>1891559050</t>
+          <t>150327834.0</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>DRAM模組41.43%、快閃記憶體(NAND Flash)37.18%、策略性產品19.12%、記憶體產品2.23%、其他0.04% (2023年)</t>
+          <t>計航次出租99.93%、計時出租0.07% (2023年)</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>十銓-半導體業-上市</t>
+          <t>新興-航運業-上市</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4540</t>
+          <t>2354</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-1.57</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>56.3</t>
+          <t>77.8</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1271,87 +1271,87 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>7339.966</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>39328.913</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>-20.0</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>--遠期量推</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>3061243131.0</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>414557897</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-1.57</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>14.70</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>全球傳動</t>
+          <t>鴻準</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1361,69 +1361,69 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>30.77</t>
+          <t>78.05</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>14.3</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29.47</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>76.26</t>
+          <t>36.22</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>5357</t>
+          <t>110047</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>1849952026</t>
+          <t>4166870274.0</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>滾珠螺桿64.74%、線性滑軌28.70%、滾珠花鍵5.38%、其他1.19% (2023年)</t>
+          <t>C電子產品99.46%、其他0.54% (2023年)</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>全球傳動-電機機械-上市</t>
+          <t>鴻準-其他電子業-上市</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3066</t>
+          <t>1536</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26.15</t>
+          <t>82.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1433,159 +1433,159 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1016.0</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1.41</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>196.0</t>
+          <t>60381.216</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>413.0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>--遠期量推</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>4966638547.0</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>-1.32</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>27144</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>-1.41</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>52.48</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>李洲</t>
+          <t>和大</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>汽車工業</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>14.61</t>
+          <t>30.90</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>21.97</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>98.54</t>
+          <t>145.78</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2172</t>
+          <t>22920</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>30547</t>
+          <t>19231818801.0</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>LED 光電產品88.84%、磊晶片11.16% (2023年)</t>
+          <t>汽車齒輪及軸類86.85%、機車齒輪及軸類10.02%、其他3.13% (2023年)</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>李洲-光電業-上櫃</t>
+          <t>和大-汽車工業-上市</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3019</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>199.0</t>
+          <t>33.65</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1595,87 +1595,87 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>39783.238</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>12513.398</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>--遠期量推</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>417815955.0</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>7992848343</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>23.32</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>亞光</t>
+          <t>南亞</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>塑膠工業</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -1685,371 +1685,47 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>49.72</t>
+          <t>44.97</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>24.45</t>
+          <t>8.38</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>36.58</t>
+          <t>84.13</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>59.43</t>
+          <t>56.83</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>55569</t>
+          <t>266872</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>38892224862</t>
+          <t>541919365.0</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>光學元件51.91%、影像感測元件產品19.78%、光電零組件11.82%、數位相機11.22%、光電產品5.27% (2023年)</t>
+          <t>印刷電路板(PCB)16.27%、其他15.67%、聚酯纖維15.29%、銅箔基板(CCL)9.70%、環氧樹脂8.98%、乙二醇(EG)4.59%、銅箔4.50%、丙二酚(BPA)4.49%、可塑劑(DOP)及硬化劑3.46%、硬質管2.63%、硬質膠布2.35%、軟質膠布1.98%、塑膠門窗1.97%、麩酸酐(PA)1.63%、丁二醇(BDO)1.28%、玻璃纖維布1.27%、聚酯薄膜1.25%、膠乳皮0.96%、BOPP膜0.62%、PU合成皮(人造皮)0.62%、玻璃纖維絲0.50% (2023年)</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>亞光-光電業-上市</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2327</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-02-13</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>593.0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>6280.917</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>53.0</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>--遠期量推近期量推量大</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>3697698351</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>國巨</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>3.7</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>303.31</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>62.95</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>14.61</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>31.95</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>307658</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>3967818696</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>磁性元件34.67%、積層陶瓷電容器(MLCC)22.08%、鉭質電容器16.42%、晶片電阻器13.35%、其他10.99%、感測器2.51% (2023年)</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>國巨-電子零組件業-上市</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>1319</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2025-02-13</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>115.5</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>均線:橫盤震盪</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>1312.644</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>18.0</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>-54</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2025-02-05</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>--遠期量推</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>152146153</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>-1.28</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>東陽</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>汽車工業</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>44.31</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>10.68</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>17.55</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>146.81</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>68316</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>320706149</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>自製-汽車零組件-塑件67.38%、自製-汽車零組件-鐵件14.60%、外購產品11.23%、其他6.79% (2023年)</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>東陽-汽車工業-上市</t>
+          <t>南亞-塑膠工業-上市</t>
         </is>
       </c>
     </row>

--- a/Result/check3.xlsx
+++ b/Result/check3.xlsx
@@ -603,17 +603,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>167.5</t>
+          <t>171.5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -628,22 +628,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-1.71</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>75699.164</t>
+          <t>65645.707</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -653,12 +653,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>318.0</t>
+          <t>319.0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>12654318089.0</t>
+          <t>11341742534.0</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-1.71</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>86.72</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -728,22 +728,22 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>98.53</t>
+          <t>100.88</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>52.88</t>
+          <t>52.31</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>28915</t>
+          <t>29606</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>24072456210.0</t>
+          <t>30760263820.0</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -765,17 +765,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>-4.09</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>62.6</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -790,22 +790,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-7.19</t>
+          <t>-7.00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>58625.806</t>
+          <t>24784.352</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-28.0</t>
+          <t>-42.0</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -835,12 +835,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>3802009120.0</t>
+          <t>1528878599.0</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-2.03</t>
+          <t>-5.51</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -850,12 +850,12 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-7.19</t>
+          <t>-7.00</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>46.15</t>
+          <t>19.51</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -895,17 +895,17 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>36.22</t>
+          <t>35.95</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>5412</t>
+          <t>5187</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>4528835375.0</t>
+          <t>2742617917.0</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.83</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>47.35</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -952,22 +952,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>9.10</t>
+          <t>-6.18</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>33838.821</t>
+          <t>68449.136</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>145.0</t>
+          <t>84.0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>79.0</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -997,12 +997,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1544581062.0</t>
+          <t>3284248473.0</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>8.23</t>
+          <t>-4.97</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1012,12 +1012,12 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>9.10</t>
+          <t>-6.18</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>66.90</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1057,17 +1057,17 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>73.62</t>
+          <t>73.52</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>4658</t>
+          <t>4604</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>4802104388.0</t>
+          <t>427032003.0</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1089,17 +1089,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-1.08</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27.3</t>
+          <t>27.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1114,22 +1114,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-2.57</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>5187.414</t>
+          <t>12639.578</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1139,12 +1139,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>72.0</t>
+          <t>-47.0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1159,12 +1159,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>141896657.0</t>
+          <t>348157257.0</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-1.62</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1174,12 +1174,12 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-2.57</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>11.33</t>
+          <t>11.31</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1224,12 +1224,12 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>15980</t>
+          <t>15951</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>150327834.0</t>
+          <t>-666452544.0</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
@@ -1251,17 +1251,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>77.8</t>
+          <t>78.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1276,22 +1276,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-0.68</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>39328.913</t>
+          <t>13782.545</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1311,22 +1311,22 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>3061243131.0</t>
+          <t>1072293702.0</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1336,12 +1336,12 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>14.70</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1376,22 +1376,22 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>29.47</t>
+          <t>29.55</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>36.22</t>
+          <t>35.95</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>110047</t>
+          <t>110330</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>4166870274.0</t>
+          <t>4665867900.0</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
@@ -1413,17 +1413,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>82.0</t>
+          <t>82.5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1438,22 +1438,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-1.41</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>60381.216</t>
+          <t>22735.467</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1463,12 +1463,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>413.0</t>
+          <t>289.0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1483,12 +1483,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>4966638547.0</t>
+          <t>1852635787.0</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1498,12 +1498,12 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-1.41</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>52.48</t>
+          <t>19.76</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1543,17 +1543,17 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>145.78</t>
+          <t>145.94</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>22920</t>
+          <t>23060</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>19231818801.0</t>
+          <t>16226299489.0</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
@@ -1575,17 +1575,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33.65</t>
+          <t>33.45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1600,22 +1600,22 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>12513.398</t>
+          <t>10182.495</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1645,12 +1645,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>417815955.0</t>
+          <t>340161069.0</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1660,12 +1660,12 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>23.32</t>
+          <t>18.97</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1700,22 +1700,22 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>84.13</t>
+          <t>83.63</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>56.83</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>266872</t>
+          <t>265286</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>541919365.0</t>
+          <t>-282029869.0</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">

--- a/Result/check3.xlsx
+++ b/Result/check3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,85 +511,90 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>highlight_enddate</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>成交金額</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>change_quote</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>價能</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>量比</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
@@ -603,17 +608,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>171.5</t>
+          <t>174.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -628,22 +633,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>9.65</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-1.71</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>65645.707</t>
+          <t>33685.676</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -653,105 +658,110 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>319.0</t>
+          <t>215</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>51</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>5779978679</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>2025-02-14</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>11341742534.0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>-1.71</t>
-        </is>
-      </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>86.72</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
+          <t>44.50</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
           <t>昇陽半導體</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
           <t>22.69</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>5.43</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>100.88</t>
-        </is>
-      </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>52.31</t>
+          <t>102.35</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>29606</t>
+          <t>52.63</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>30760263820.0</t>
+          <t>30037</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
+          <t>29776039302</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
           <t>晶圓代工100.00% (2023年)</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>昇陽半導體-半導體業-上市</t>
         </is>
@@ -765,17 +775,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-4.09</t>
+          <t>-2.15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>58.7</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -790,22 +800,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-7.00</t>
+          <t>-1.68</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>24784.352</t>
+          <t>12706.351</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -815,105 +825,110 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-42.0</t>
+          <t>-57</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>747120635</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>-2.98</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>1528878599.0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>-5.51</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>-7.00</t>
-        </is>
-      </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>19.51</t>
+          <t>-1.68</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
           <t>興能高</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
           <t>15.99</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>3.54</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>35.95</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>5187</t>
+          <t>36.3</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2742617917.0</t>
+          <t>5075</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
+          <t>1526009886</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
           <t>電池組93.08%、電池芯6.92% (2023年)</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>興能高-其他電子業-上市</t>
         </is>
@@ -927,17 +942,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>9.58</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -952,22 +967,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-6.18</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>68449.136</t>
+          <t>70294.534</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -977,105 +992,110 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>84.0</t>
+          <t>131</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>86.0</t>
+          <t>93</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>3505003864</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>2025-02-06</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>3284248473.0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>-4.97</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>-6.18</t>
-        </is>
-      </c>
       <c r="T4" t="inlineStr">
         <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
           <t>100.00</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>事欣科</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
       <c r="Y4" t="inlineStr">
         <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
           <t>19.95</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>8.96</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>73.52</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>4604</t>
+          <t>74.19</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>427032003.0</t>
+          <t>5057</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
+          <t>1765336453</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
           <t>航太及國防工業75.60%、博奕及工業電腦24.40% (2023年)</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>事欣科-電腦及週邊設備業-上市</t>
         </is>
@@ -1089,155 +1109,160 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-0.73</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>3706.308</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>101210708</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
           <t>-0.18</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>27.25</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>-2.57</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>12639.578</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>-47.0</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>46.0</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>2025-02-14</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>348157257.0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>-0.73</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>-2.57</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>11.80</t>
-        </is>
-      </c>
       <c r="U5" t="inlineStr">
         <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
           <t>新興</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>2.75</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>29.58</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>1.88</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>11.31</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>21.62</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
+          <t>21.75</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
           <t>15951</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>-666452544.0</t>
-        </is>
-      </c>
       <c r="AE5" t="inlineStr">
         <is>
+          <t>-591264622</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
           <t>計航次出租99.93%、計時出租0.07% (2023年)</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>新興-航運業-上市</t>
         </is>
@@ -1251,155 +1276,160 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>78.9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-0.53</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>12451.032</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>2025-02-20</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>78.0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>-0.18</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>-0.68</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>13782.545</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>42.0</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>-20.0</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>977269312</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>2025-02-20</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>1072293702.0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
           <t>鴻準</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
       <c r="Y6" t="inlineStr">
         <is>
+          <t>1.9</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
           <t>78.05</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AA6" t="inlineStr">
         <is>
           <t>14.3</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>29.55</t>
-        </is>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>35.95</t>
+          <t>29.89</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>110330</t>
+          <t>36.3</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>4665867900.0</t>
+          <t>111603</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
+          <t>5110806145</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
           <t>C電子產品99.46%、其他0.54% (2023年)</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>鴻準-其他電子業-上市</t>
         </is>
@@ -1413,17 +1443,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>82.5</t>
+          <t>88.2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1438,22 +1468,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>22735.467</t>
+          <t>100250.946</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1463,105 +1493,110 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>289.0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>70</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>8582761996</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>2025-02-14</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>1852635787.0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>19.76</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
           <t>和大</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>汽車工業</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
       <c r="Y7" t="inlineStr">
         <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
           <t>30.90</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>5.21</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>145.94</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>23060</t>
+          <t>146.51</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>16226299489.0</t>
+          <t>24653</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
+          <t>15402036330</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
           <t>汽車齒輪及軸類86.85%、機車齒輪及軸類10.02%、其他3.13% (2023年)</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>和大-汽車工業-上市</t>
         </is>
@@ -1575,17 +1610,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33.45</t>
+          <t>33.95</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1600,22 +1635,22 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>10182.495</t>
+          <t>9067.945</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1625,105 +1660,110 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>305665902</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>340161069.0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>-0.74</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>-0.43</t>
-        </is>
-      </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>18.97</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
           <t>南亞</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>塑膠工業</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
       <c r="Y8" t="inlineStr">
         <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
           <t>44.97</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AA8" t="inlineStr">
         <is>
           <t>8.38</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>83.63</t>
-        </is>
-      </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>84.88</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>265286</t>
+          <t>57.5</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-282029869.0</t>
+          <t>269251</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
+          <t>383320788</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
           <t>印刷電路板(PCB)16.27%、其他15.67%、聚酯纖維15.29%、銅箔基板(CCL)9.70%、環氧樹脂8.98%、乙二醇(EG)4.59%、銅箔4.50%、丙二酚(BPA)4.49%、可塑劑(DOP)及硬化劑3.46%、硬質管2.63%、硬質膠布2.35%、軟質膠布1.98%、塑膠門窗1.97%、麩酸酐(PA)1.63%、丁二醇(BDO)1.28%、玻璃纖維布1.27%、聚酯薄膜1.25%、膠乳皮0.96%、BOPP膜0.62%、PU合成皮(人造皮)0.62%、玻璃纖維絲0.50% (2023年)</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>南亞-塑膠工業-上市</t>
         </is>

--- a/Result/check3.xlsx
+++ b/Result/check3.xlsx
@@ -608,17 +608,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>-1.75</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>174.0</t>
+          <t>171.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -633,22 +633,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>9.65</t>
+          <t>10.71</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>-1.74</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>33685.676</t>
+          <t>16456.179</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -658,17 +658,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>181.0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>5779978679</t>
+          <t>2824974367.0</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>-1.74</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>44.50</t>
+          <t>21.74</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -738,22 +738,22 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>102.35</t>
+          <t>100.59</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>52.63</t>
+          <t>52.54</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>30037</t>
+          <t>29519</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>29776039302</t>
+          <t>14296746846.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -775,17 +775,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>58.7</t>
+          <t>63.8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -800,22 +800,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-1.68</t>
+          <t>7.96</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>12706.351</t>
+          <t>42551.611</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -825,17 +825,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-57</t>
+          <t>-58.0</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -850,12 +850,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>747120635</t>
+          <t>2673905557.0</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-2.98</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-1.68</t>
+          <t>7.96</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>33.50</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -905,22 +905,22 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>638.0</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>36.3</t>
+          <t>53.23</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>5075</t>
+          <t>5516</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1526009886</t>
+          <t>397906323.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -942,17 +942,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.58</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -967,22 +967,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>8.10</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>70294.534</t>
+          <t>64349.317</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -992,17 +992,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>121.0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>94.0</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1012,17 +1012,17 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>3505003864</t>
+          <t>3324878648.0</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>7.08</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>8.10</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>91.54</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1077,17 +1077,17 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>74.19</t>
+          <t>74.05</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>5057</t>
+          <t>5145</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>1765336453</t>
+          <t>3545634039.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1109,69 +1109,69 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>38438.997</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>27.25</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>-0.73</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>3706.308</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="O5" t="inlineStr">
         <is>
           <t>2025-02-14</t>
@@ -1179,17 +1179,17 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>101210708</t>
+          <t>1081836530.0</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1199,12 +1199,12 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>35.89</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1239,22 +1239,22 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11.31</t>
+          <t>11.64</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>21.75</t>
+          <t>21.96</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>15951</t>
+          <t>16419</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-591264622</t>
+          <t>632468565.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1276,17 +1276,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>-1.03</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>78.9</t>
+          <t>78.1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1301,22 +1301,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>12451.032</t>
+          <t>7365.171</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1326,17 +1326,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-20.0</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1346,17 +1346,17 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>977269312</t>
+          <t>576095188.0</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1366,12 +1366,12 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1406,22 +1406,22 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>29.89</t>
+          <t>29.58</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>36.3</t>
+          <t>53.23</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>111603</t>
+          <t>110471</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>5110806145</t>
+          <t>1473467826.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1443,17 +1443,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6.79</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>88.2</t>
+          <t>88.7</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1468,22 +1468,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>100250.946</t>
+          <t>64029.475</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1493,17 +1493,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>190.0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1513,17 +1513,17 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>8582761996</t>
+          <t>5710074829.0</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1533,12 +1533,12 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>87.14</t>
+          <t>55.65</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1578,17 +1578,17 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>146.51</t>
+          <t>147.49</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>24653</t>
+          <t>24793</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>15402036330</t>
+          <t>16145472612.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1610,17 +1610,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33.95</t>
+          <t>34.25</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1635,22 +1635,22 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>9067.945</t>
+          <t>11711.363</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1660,17 +1660,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-16.0</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1680,17 +1680,17 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>305665902</t>
+          <t>397907447.0</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1700,12 +1700,12 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>16.90</t>
+          <t>21.82</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1740,22 +1740,22 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>84.88</t>
+          <t>85.63</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>57.5</t>
+          <t>57.97</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>269251</t>
+          <t>271631</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>383320788</t>
+          <t>363412280.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
